--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 14.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 14.xlsx_with_dialog_acts.xlsx
@@ -724,12 +724,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1769,12 +1769,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2274,12 +2274,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3102,12 +3102,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3318,12 +3318,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3354,12 +3354,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
